--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Wat</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Dag 2</t>
+  </si>
+  <si>
+    <t>Prioriteiten</t>
+  </si>
+  <si>
+    <t>Minimaal tot 'should have'</t>
   </si>
 </sst>
 </file>
@@ -415,26 +421,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -445,7 +455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -453,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -467,7 +477,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -478,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -486,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -500,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -508,10 +518,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -522,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -532,8 +542,11 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -544,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -555,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -566,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Wat</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Minimaal tot 'should have'</t>
+  </si>
+  <si>
+    <t>Af?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Tijd af</t>
+  </si>
+  <si>
+    <t>Puntjes op de i</t>
+  </si>
+  <si>
+    <t>Pauze van 12:25 tot 13:15</t>
+  </si>
+  <si>
+    <t>Pauze van 10:25 tot 10:45</t>
   </si>
 </sst>
 </file>
@@ -116,10 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -431,9 +450,10 @@
   <cols>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +463,14 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -454,8 +480,14 @@
       <c r="C2" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -465,8 +497,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -476,8 +517,14 @@
       <c r="C4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -487,8 +534,14 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -498,8 +551,14 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -509,8 +568,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -520,72 +585,98 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
-        <f>SUM(C2:C15)</f>
-        <v>18</v>
+      <c r="C17">
+        <f>SUM(C2:C16)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Wat</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Pauze van 10:25 tot 10:45</t>
+  </si>
+  <si>
+    <t>~10 minuten UI</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +625,15 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -645,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,7 +688,7 @@
       </c>
       <c r="C17">
         <f>SUM(C2:C16)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
